--- a/Cash Book/Advances.xlsx
+++ b/Cash Book/Advances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Cash Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E91CBB-550E-4C1A-B0A4-B8D61B02DDC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837C5099-7112-4B98-8DE6-383651C10CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Staff" sheetId="1" r:id="rId1"/>
     <sheet name="Labor " sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Labo</t>
   </si>
@@ -47,6 +47,15 @@
   </si>
   <si>
     <t>Shakeel Rafogar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bao Usman </t>
+  </si>
+  <si>
+    <t>Nasir Elec .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yasir Checker </t>
   </si>
 </sst>
 </file>
@@ -374,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:E6"/>
+  <dimension ref="C3:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,6 +431,30 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -429,15 +462,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9320B7-716E-4CE8-9BEC-72BCF9F89115}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="26.25" x14ac:dyDescent="0.7">
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Cash Book/Advances.xlsx
+++ b/Cash Book/Advances.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Cash Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837C5099-7112-4B98-8DE6-383651C10CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF23731D-829C-4F76-AEE0-5CF5CF605343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -386,7 +386,7 @@
   <dimension ref="C3:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Cash Book/Advances.xlsx
+++ b/Cash Book/Advances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Cash Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF23731D-829C-4F76-AEE0-5CF5CF605343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F11177-08CD-4166-AFA4-21D70761D1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Staff" sheetId="1" r:id="rId1"/>
@@ -385,8 +385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9320B7-716E-4CE8-9BEC-72BCF9F89115}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Cash Book/Advances.xlsx
+++ b/Cash Book/Advances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Cash Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F11177-08CD-4166-AFA4-21D70761D1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFB6F16-72B2-4E06-ACDA-CCCC45B0F770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Staff" sheetId="1" r:id="rId1"/>
@@ -385,8 +385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9320B7-716E-4CE8-9BEC-72BCF9F89115}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>

--- a/Cash Book/Advances.xlsx
+++ b/Cash Book/Advances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Cash Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFB6F16-72B2-4E06-ACDA-CCCC45B0F770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63532A7E-B1C9-457D-BDD5-E6C4E38ADB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
     <t>Labo</t>
   </si>
@@ -38,24 +38,6 @@
   </si>
   <si>
     <t xml:space="preserve">Amount </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ali Designer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Night Guard </t>
-  </si>
-  <si>
-    <t>Shakeel Rafogar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bao Usman </t>
-  </si>
-  <si>
-    <t>Nasir Elec .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yasir Checker </t>
   </si>
 </sst>
 </file>
@@ -383,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:E9"/>
+  <dimension ref="C3:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,54 +387,6 @@
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Cash Book/Advances.xlsx
+++ b/Cash Book/Advances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Cash Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63532A7E-B1C9-457D-BDD5-E6C4E38ADB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFA64F5-A7A3-4FE2-A0DC-BB48F6A927A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>Labo</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t xml:space="preserve">Amount </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ali Hamza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remaning </t>
   </si>
 </sst>
 </file>
@@ -80,9 +86,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -365,17 +374,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:E3"/>
+  <dimension ref="C3:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="14.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:5" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.7">
@@ -387,6 +398,17 @@
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/Cash Book/Advances.xlsx
+++ b/Cash Book/Advances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Cash Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFA64F5-A7A3-4FE2-A0DC-BB48F6A927A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98F6C5E-8948-4557-8ADF-72FEC7F9749E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Labo</t>
   </si>
@@ -44,13 +44,28 @@
   </si>
   <si>
     <t xml:space="preserve">Remaning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asmatullah </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shakeel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shakeel Salry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bao usman </t>
+  </si>
+  <si>
+    <t>Bao Yasir</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +79,14 @@
       <color theme="1"/>
       <name val="Dubai Medium"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,12 +109,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -374,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:E4"/>
+  <dimension ref="C3:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,8 +436,51 @@
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="3">
+        <v>45887</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="4">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/Cash Book/Advances.xlsx
+++ b/Cash Book/Advances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Cash Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98F6C5E-8948-4557-8ADF-72FEC7F9749E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE4AF8D-BDC0-4317-BEFE-010DFE0AFA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Labo</t>
   </si>
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:E9"/>
+  <dimension ref="C3:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,8 +483,25 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Cash Book/Advances.xlsx
+++ b/Cash Book/Advances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Cash Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE4AF8D-BDC0-4317-BEFE-010DFE0AFA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8824090-2F51-411D-9456-DEA45EBD283F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Labo</t>
   </si>
@@ -52,20 +52,29 @@
     <t xml:space="preserve">Shakeel </t>
   </si>
   <si>
-    <t xml:space="preserve">Shakeel Salry </t>
-  </si>
-  <si>
     <t xml:space="preserve">Bao usman </t>
   </si>
   <si>
     <t>Bao Yasir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 Advance Adgsut </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ali Designer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheema Sahb </t>
+  </si>
+  <si>
+    <t>Shahbaz Sweeper</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +97,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -97,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -105,11 +122,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -117,10 +149,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -403,103 +444,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:E11"/>
+  <dimension ref="C2:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="2"/>
     <col min="3" max="3" width="14.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
+    <row r="2" spans="3:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
     <row r="3" spans="3:5" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.7">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>2000</v>
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="3">
+      <c r="C5" s="6">
         <v>45887</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>1000</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E7" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="5">
         <v>5000</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D7" s="2" t="s">
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E14" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="5">
         <v>5000</v>
       </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="4">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="4">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1000</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Cash Book/Advances.xlsx
+++ b/Cash Book/Advances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Cash Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8824090-2F51-411D-9456-DEA45EBD283F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B3DFA5-9117-44BC-AC1F-0CF029C55870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Labo</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>Shahbaz Sweeper</t>
+  </si>
+  <si>
+    <t>Yasir Checker</t>
   </si>
 </sst>
 </file>
@@ -444,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:E15"/>
+  <dimension ref="C2:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,6 +591,27 @@
       <c r="E15" s="5">
         <v>5000</v>
       </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Cash Book/Advances.xlsx
+++ b/Cash Book/Advances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Cash Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B3DFA5-9117-44BC-AC1F-0CF029C55870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9701216D-AE7A-4595-A298-244FEAB45CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>Labo</t>
   </si>
@@ -71,6 +71,18 @@
   </si>
   <si>
     <t>Yasir Checker</t>
+  </si>
+  <si>
+    <t>Shakeel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bao Usman </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bao Yasir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ali Deisgner </t>
   </si>
 </sst>
 </file>
@@ -144,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -165,6 +177,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -447,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:E18"/>
+  <dimension ref="C2:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="H6" sqref="H6:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,17 +477,25 @@
     <col min="3" max="3" width="14.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="12.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="2" customWidth="1"/>
+    <col min="14" max="15" width="16.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="3:5" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.7">
+    <row r="3" spans="3:15" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.7">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -480,7 +506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
@@ -491,110 +517,161 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C5" s="6">
         <v>45887</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="5">
         <v>1000</v>
       </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="5">
         <v>5000</v>
       </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H6" s="9">
+        <f>1000+5000+5000</f>
+        <v>11000</v>
+      </c>
+      <c r="I6" s="2">
+        <f>5000+1000+10000</f>
+        <v>16000</v>
+      </c>
+      <c r="J6" s="9">
+        <v>10000</v>
+      </c>
+      <c r="K6" s="2">
+        <f>15000+2000+1000</f>
+        <v>18000</v>
+      </c>
+      <c r="L6" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M6" s="2">
+        <v>15000</v>
+      </c>
+      <c r="N6" s="2">
+        <v>5000</v>
+      </c>
+      <c r="O6" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="5">
         <v>15000</v>
       </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="5">
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="5">
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="5">
         <v>5000</v>
       </c>
     </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="5">
         <v>15000</v>
       </c>
     </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="5">
         <v>5000</v>
       </c>
     </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="5">
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="5">
         <v>5000</v>
       </c>
     </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="5">
@@ -603,7 +680,7 @@
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="5">
@@ -612,6 +689,12 @@
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="4"/>
+      <c r="D18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -627,7 +710,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
